--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999952528980397</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990146404886966</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999866650666994</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999859082355421</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999988841569124</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G2" t="n">
-        <v>4.43121130629676e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009197898515180129</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I2" t="n">
-        <v>5.084866150605471e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>6.221010750930298e-06</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>5.652938450767884e-06</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000149749793900414</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002105044252811983</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000008763880542</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002194660344696517</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P2" t="n">
-        <v>98.65367515742093</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.7520806775444</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_1</t>
+          <t>model_20_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999958872879171</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990121523514366</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999988664576143</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999851934462592</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999892826383024</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G3" t="n">
-        <v>3.839036202226347e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009221124184336577</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I3" t="n">
-        <v>4.322414801332789e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>6.536564692138509e-06</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.429489746735649e-06</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001494117552169969</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001959345860798023</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00000759269923</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002042759270497273</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P3" t="n">
-        <v>98.94057842374241</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.0389839438658</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_2</t>
+          <t>model_20_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999961619665764</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999009312187379</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999891826815489</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999982486580125</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999882982250216</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G4" t="n">
-        <v>3.58263573080475e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009247635869126533</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I4" t="n">
-        <v>4.124851260376247e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>7.731549420500439e-06</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>5.928200340438343e-06</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001520160824807528</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001892785178197661</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000007085600167</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001973364961839005</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P4" t="n">
-        <v>99.0788235815734</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q4" t="n">
-        <v>144.1772291016968</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_3</t>
+          <t>model_20_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999962352924278</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990066970615351</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999888277640412</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999979101906794</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999866899275898</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G5" t="n">
-        <v>3.514189267088015e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009272046920971172</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I5" t="n">
-        <v>4.260188121912154e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>9.225761819757445e-06</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>6.742974970834799e-06</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001536222485165442</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001874617098793248</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000006950229364</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001954423429681238</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P5" t="n">
-        <v>99.11740341756484</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.2158089376883</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_4</t>
+          <t>model_20_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999961432340554</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990042358566719</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999987815795903</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999750462437209</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999845419967704</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G6" t="n">
-        <v>3.600121716851765e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009295021188025871</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I6" t="n">
-        <v>4.646071006739718e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>1.101619222719358e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>7.831131616966649e-06</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001548020999838403</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001897398671036681</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000007120183282</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00197817486061943</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P6" t="n">
-        <v>99.06908580567432</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.1674913257978</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_5</t>
+          <t>model_20_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.99999588147949</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999001510007442</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999861983520886</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999699691445111</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999817211506853</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G7" t="n">
-        <v>3.844458113850778e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000932046579407753</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I7" t="n">
-        <v>5.262833394465792e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>1.325755021059541e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>9.260191802530602e-06</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001565155390945989</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001960728975113791</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00000760342248</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002044201266852904</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P7" t="n">
-        <v>98.93775579523442</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q7" t="n">
-        <v>144.0361613153578</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_6</t>
+          <t>model_20_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999955599558169</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989991646101646</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999843036466654</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999649463957219</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999788196390972</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G8" t="n">
-        <v>4.144586349520753e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009342359048151266</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I8" t="n">
-        <v>5.98532095813213e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>1.547491442429541e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.073011769121377e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001575049760369124</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002035825716882649</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000008197004646</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002122495032390549</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P8" t="n">
-        <v>98.78741513881229</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q8" t="n">
-        <v>143.8858206589357</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_7</t>
+          <t>model_20_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999951926644214</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.998997040410377</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999823068724948</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999598914130386</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999758656697919</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G9" t="n">
-        <v>4.487436744953988e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009362187520752284</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I9" t="n">
-        <v>6.7467292952595e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>1.770650875106539e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.222661902316245e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001581020792876316</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002118357086270865</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000008875081068</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002208539933037107</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P9" t="n">
-        <v>98.62845780016241</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q9" t="n">
-        <v>143.7268633202858</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_8</t>
+          <t>model_20_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999994766293746</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989949910034696</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999980107904242</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999546063077333</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999727353394916</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G10" t="n">
-        <v>4.885435055012792e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009381317834647686</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I10" t="n">
-        <v>7.585238118882226e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>2.00396939971365e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.381246605800936e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001587285261374244</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002210302028007211</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000009662226931</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002304399161295439</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P10" t="n">
-        <v>98.45850443413411</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.5569099542575</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_9</t>
+          <t>model_20_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999943111336176</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989929912224839</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999778302379884</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999492924879362</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999969562880394</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G11" t="n">
-        <v>5.310307055562536e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009399984912347222</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I11" t="n">
-        <v>8.453756001508516e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>2.238555566584543e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.541965583367697e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001593010452923061</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002304410348779604</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000010502522552</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002402513868114192</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P11" t="n">
-        <v>98.29172179695193</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.3901273170754</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_10</t>
+          <t>model_20_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999939159307379</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989913323791985</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999758874231652</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999447430867378</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999668495038332</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G12" t="n">
-        <v>5.679211596346768e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009415469486268187</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I12" t="n">
-        <v>9.194588603270306e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>2.439395382280828e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.679427121303929e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001592343233230901</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002383109648410406</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000011232127868</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002484563559860286</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P12" t="n">
-        <v>98.15739627665076</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.2558017967742</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_11</t>
+          <t>model_20_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999935296145839</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989898238988906</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999740220223962</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999404353749355</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999642705674996</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G13" t="n">
-        <v>6.039820768831637e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000942955048779548</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I13" t="n">
-        <v>9.905901739512871e-06</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>2.629565474279962e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.810077824115624e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001591013387735235</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002457604681154322</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000011945326922</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002562230000374088</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P13" t="n">
-        <v>98.03427244098467</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.1326779611081</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999993126823675</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989883956933193</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999721094622146</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999360919379553</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999616583171926</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G14" t="n">
-        <v>6.415808401742456e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009442882159893206</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.063519766539827e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>2.821312705299483e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.942416235919655e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001595530122541151</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002532944610871397</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000012688940908</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002640777306874374</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P14" t="n">
-        <v>97.91349110083453</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.011896620958</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_13</t>
+          <t>model_20_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999927964108282</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989872414655018</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999705581330157</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999932540026362</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999595268878821</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G15" t="n">
-        <v>6.724234290881178e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009453656369922819</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I15" t="n">
-        <v>1.122674928054528e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>2.97811691725178e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.050395922653154e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000160609964262466</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002593112857335982</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000013298933856</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002703507040156395</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P15" t="n">
-        <v>97.81958499810189</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.9179905182253</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_14</t>
+          <t>model_20_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999923838475305</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989858327596632</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999686702633559</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999282772491348</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999569590737716</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G16" t="n">
-        <v>7.109344019763041e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009466806020574819</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I16" t="n">
-        <v>1.194663023635226e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166303308235234e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.18048316593523e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000162370383894597</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002666335316452723</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000014060589174</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002779846730949123</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P16" t="n">
-        <v>97.70820116008439</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.8066066802078</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_15</t>
+          <t>model_20_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999920531360924</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989847216761885</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999671516449384</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999248542633334</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999548961288988</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G17" t="n">
-        <v>7.418048630754938e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009477177497102967</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I17" t="n">
-        <v>1.252570860237761e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>3.317415906902427e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.284993383570094e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001633835202661896</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002723609485729358</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000014671133368</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002839559180185739</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P17" t="n">
-        <v>97.62318904628242</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q17" t="n">
-        <v>142.7215945664058</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_16</t>
+          <t>model_20_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999917626088022</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989837620604225</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999658569847484</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999218557368341</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999531024097097</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G18" t="n">
-        <v>7.689243103472296e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009486135089055764</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I18" t="n">
-        <v>1.301938739542065e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>3.449790143251116e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.37586444139659e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000164125276334024</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002772948449479777</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000015207491442</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002890998605768748</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P18" t="n">
-        <v>97.55137641073462</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.649781930858</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_17</t>
+          <t>model_20_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999914476568932</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989827559412021</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.99996445401468</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999186760391586</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999511889909739</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G19" t="n">
-        <v>7.983236885724096e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009495526770342944</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3554366825008e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>3.59016244001559e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.472799561258195e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001651420388511243</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002825462242841708</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00001578894112</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002945748020032635</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P19" t="n">
-        <v>97.47633320793719</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.5747387280606</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_18</t>
+          <t>model_20_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999911716838938</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.998981930851418</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999632276584826</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999158949737086</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999495157270165</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G20" t="n">
-        <v>8.240845566808243e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009503228621304808</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I20" t="n">
-        <v>1.402199999396776e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.712936547654253e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.557568273525514e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001657846310587533</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00287068729868097</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000016298429734</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002992898400127746</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P20" t="n">
-        <v>97.41281520395319</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.5112207240766</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_19</t>
+          <t>model_20_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999909236922716</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998981170076886</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999621366230478</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999134139759503</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999480241320839</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G21" t="n">
-        <v>8.472334860630721e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009510330117619601</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I21" t="n">
-        <v>1.44380327573769e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>3.822463738328329e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.63313350703301e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001663495640737191</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002910727548334045</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000016756260422</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003034643246103296</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P21" t="n">
-        <v>97.35740884975218</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.4558143698756</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_20</t>
+          <t>model_20_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999906979501315</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989804847029556</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999611670088754</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999111400841562</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999466684710843</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G22" t="n">
-        <v>8.683055239443312e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009516727782415334</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I22" t="n">
-        <v>1.480776526173121e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>3.922847940323964e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.701812233248542e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001667947681018512</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002946702434831741</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000017173015142</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00307214965799748</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P22" t="n">
-        <v>97.30827421022722</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q22" t="n">
-        <v>142.4066797303506</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_21</t>
+          <t>model_20_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999904913045629</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989799012017274</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999602615310069</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999090904107896</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999945434641059</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G23" t="n">
-        <v>8.875949807043932e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009522174510253583</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I23" t="n">
-        <v>1.515304136171113e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>4.013333699489016e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.764318917830065e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000167216466041938</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002979253229761433</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000017554514653</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003106086207656764</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P23" t="n">
-        <v>97.26433041563418</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q23" t="n">
-        <v>142.3627359357576</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_22</t>
+          <t>model_20_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999902623462834</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989792241832731</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999592745082277</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999906839421421</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999440824071413</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G24" t="n">
-        <v>9.089672310862151e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009528494180347674</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I24" t="n">
-        <v>1.552941210209925e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>4.112706841182222e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.832824025696074e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001678530833337855</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003014908342033328</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000017977206861</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003143259231874331</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P24" t="n">
-        <v>97.21674339966958</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.315148919793</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_23</t>
+          <t>model_20_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999900903144853</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989787412223488</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999585411901505</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999051313681646</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999430622150456</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G25" t="n">
-        <v>9.250256443058155e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009533002408580567</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I25" t="n">
-        <v>1.58090403675745e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>4.188111292504492e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.884507664630971e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001681432036601714</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003041423423835977</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000018294804027</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003170903115603104</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P25" t="n">
-        <v>97.18171856650075</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q25" t="n">
-        <v>142.2801240866242</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999899475718941</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989783590347155</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999579346389906</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999037152748537</v>
+        <v>0.9999693906937425</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999422169401663</v>
+        <v>0.9999910533168559</v>
       </c>
       <c r="G26" t="n">
-        <v>9.383500386243859e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009536569962376193</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I26" t="n">
-        <v>1.604032997299438e-05</v>
+        <v>6.471593238127035e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>4.250626754908764e-05</v>
+        <v>2.380135856745718e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.927329876104101e-05</v>
+        <v>1.190067931608656e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001683127785078595</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003063249971230533</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000018558328811</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003193658864307428</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P26" t="n">
-        <v>97.15311537810612</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.2515208982295</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
   </sheetData>
